--- a/biology/Zoologie/Hebius_vibakari/Hebius_vibakari.xlsx
+++ b/biology/Zoologie/Hebius_vibakari/Hebius_vibakari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hebius vibakari est une espèce de serpents de la famille des Natricidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hebius vibakari est une espèce de serpents de la famille des Natricidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Japon sur les îles de Kyūshū, de Shikoku et de Honshū ;
 dans le nord-est de la République populaire de Chine :
 en Corée du Nord ;
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent ovipare.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (11 décembre 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (11 décembre 2014) :
 Hebius vibakari danjoensis (Toriba, 1986)
 Hebius vibakari ruthveni (Van Denburgh, 1923)
 Hebius vibakari vibakari (Boie, 1826)</t>
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boie, 1826 : Merkmale einiger japanischer Lurche. Isis von Oken, vol. 19, p. 203-216 (texte intégral).
 Toriba, 1986 : Preliminary study on the systematic status of a Danjo Islands snake. Japanese Journal of Herpetology, vol. 11, no 3, p. 124-136.
